--- a/datas/shared/DragonEyrie.xlsx
+++ b/datas/shared/DragonEyrie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="2160" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="2120" yWindow="2580" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="crown" sheetId="53" r:id="rId1"/>
@@ -17,7 +17,11 @@
     <sheet name="dragonAttribute" sheetId="57" r:id="rId8"/>
     <sheet name="dragons" sheetId="60" r:id="rId9"/>
     <sheet name="dragonSkill" sheetId="58" r:id="rId10"/>
+    <sheet name="fightFix" sheetId="61" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crown!$A$1:$D$21</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
@@ -28,6 +32,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
@@ -39,6 +44,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
@@ -50,6 +56,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
@@ -61,6 +68,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -75,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -450,6 +458,22 @@
   </si>
   <si>
     <t>INT_maxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1951,7 +1975,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1970,6 +1994,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1314">
@@ -3361,6 +3391,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="normal"/>
+      <sheetName val="special"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4223,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4823,6 +4868,202 @@
     </row>
     <row r="100" spans="1:1" ht="20" customHeight="1">
       <c r="A100" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="8" customWidth="1"/>
+    <col min="4" max="10" width="17" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
